--- a/WebBasedEvaluations/Program documents/upload_company.xlsx
+++ b/WebBasedEvaluations/Program documents/upload_company.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Program documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69A66FC-50E0-4695-A988-392DD3D1CCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE20EBF-79E3-42AA-AEC3-82B0C4D6AF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>COMPANY NAME</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>San Francisco</t>
+  </si>
+  <si>
+    <t>FILETYPE:</t>
+  </si>
+  <si>
+    <t>Company Template</t>
   </si>
 </sst>
 </file>
@@ -638,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,13 +656,13 @@
     <col min="2" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +672,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -678,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -689,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -700,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -711,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -722,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -733,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -744,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -755,7 +767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -766,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -777,7 +789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
